--- a/data/somatic_growth.xlsx
+++ b/data/somatic_growth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive - University of Cape Town\OneDrive - University of Cape Town\msc_thesis\parechinus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7C40FD-4961-4C3B-B11F-5944A8EC9C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F39F83F-E2A7-47AB-8D4D-ACFD35F23387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{63AE9C5D-0E34-4474-BE2F-536B91E52731}"/>
   </bookViews>
@@ -462,13 +462,15 @@
   <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
